--- a/ls.xlsx
+++ b/ls.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">login</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t xml:space="preserve">CBLJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baphomet17?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CVSA</t>
   </si>
 </sst>
 </file>
@@ -213,13 +219,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -362,6 +368,17 @@
       </c>
       <c r="C13" s="0" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>1093924</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/ls.xlsx
+++ b/ls.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve">login</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t xml:space="preserve">CVSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alien@79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLI</t>
   </si>
 </sst>
 </file>
@@ -219,13 +225,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -381,10 +387,22 @@
         <v>28</v>
       </c>
     </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>2176476</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" display="nunes@123"/>
     <hyperlink ref="B10" r:id="rId2" display="0708@taci"/>
+    <hyperlink ref="B15" r:id="rId3" display="Alien@79"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>

--- a/ls.xlsx
+++ b/ls.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">login</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t xml:space="preserve">COLI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">072904ker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBAR</t>
   </si>
 </sst>
 </file>
@@ -225,13 +231,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -396,6 +402,17 @@
       </c>
       <c r="C15" s="0" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>2350200</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/ls.xlsx
+++ b/ls.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">login</t>
   </si>
@@ -119,6 +119,18 @@
   </si>
   <si>
     <t xml:space="preserve">CBAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lelec@24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rosesuap21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREC</t>
   </si>
 </sst>
 </file>
@@ -231,13 +243,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -413,6 +425,28 @@
       </c>
       <c r="C16" s="0" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>1577048</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>275772</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -420,6 +454,7 @@
     <hyperlink ref="B5" r:id="rId1" display="nunes@123"/>
     <hyperlink ref="B10" r:id="rId2" display="0708@taci"/>
     <hyperlink ref="B15" r:id="rId3" display="Alien@79"/>
+    <hyperlink ref="B17" r:id="rId4" display="Lelec@24"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
